--- a/20 開発資料/02.画面設計/画面レイアウト(11_会場手配履歴).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(11_会場手配履歴).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="30" windowWidth="22635" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="4380" yWindow="30" windowWidth="22290" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3.3_0" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="104">
   <si>
     <t>ヤクルト国際大会
 名簿システム改修2009</t>
@@ -556,12 +556,145 @@
     <t>KaijoRireki</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>＜履歴一覧＞</t>
+    <rPh sb="1" eb="3">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事業部</t>
+    <rPh sb="0" eb="2">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業所</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実施日To</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隠し項目</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD HH:MM:SS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TBL_KAIJO</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -623,6 +756,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -638,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -934,26 +1074,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -962,7 +1082,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,63 +1200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1146,97 +1209,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1261,6 +1252,33 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,13 +1315,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1318,11 +1447,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,23 +1483,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2450,202 +2618,202 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="90" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="85" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="93" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="107"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="73"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="90" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="108" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="93" t="s">
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="85" t="s">
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="87">
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43">
         <v>39961</v>
       </c>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="85" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="86" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="85" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="85" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="85" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="85" t="s">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="86" t="s">
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -2726,83 +2894,83 @@
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="76" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="76" t="s">
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="77"/>
-      <c r="U9" s="76" t="s">
+      <c r="T9" s="61"/>
+      <c r="U9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="76" t="s">
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="76" t="s">
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="76" t="s">
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="76" t="s">
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="76" t="s">
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="76" t="s">
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="76" t="s">
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="76" t="s">
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="79" t="s">
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AY9" s="80"/>
-      <c r="AZ9" s="81"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="58"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
@@ -2824,66 +2992,66 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="82" t="s">
+      <c r="O10" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="67" t="s">
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="72"/>
-      <c r="U10" s="82" t="s">
+      <c r="T10" s="78"/>
+      <c r="U10" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="82" t="s">
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="67" t="s">
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="67" t="s">
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="67">
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="77">
         <v>8</v>
       </c>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="67" t="s">
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="67" t="s">
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="67" t="s">
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="69" t="s">
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="AY10" s="70"/>
-      <c r="AZ10" s="71"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="82"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
@@ -2905,66 +3073,66 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="48" t="s">
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="T11" s="61"/>
-      <c r="U11" s="58" t="s">
+      <c r="T11" s="87"/>
+      <c r="U11" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="58" t="s">
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="48" t="s">
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="48" t="s">
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="48">
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="86">
         <v>10</v>
       </c>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="48" t="s">
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="48" t="s">
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="48" t="s">
+      <c r="AU11" s="88"/>
+      <c r="AV11" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="AW11" s="49"/>
-      <c r="AX11" s="50" t="s">
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AY11" s="51"/>
-      <c r="AZ11" s="52"/>
+      <c r="AY11" s="96"/>
+      <c r="AZ11" s="97"/>
     </row>
     <row r="12" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
@@ -2986,68 +3154,68 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="48" t="s">
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="61"/>
-      <c r="U12" s="58" t="s">
+      <c r="T12" s="87"/>
+      <c r="U12" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="58" t="s">
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="67" t="s">
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="85"/>
+      <c r="AE12" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="48" t="s">
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="48">
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="86">
         <v>20</v>
       </c>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="48" t="s">
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="64" t="s">
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="48" t="s">
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="48" t="s">
+      <c r="AU12" s="88"/>
+      <c r="AV12" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="50" t="s">
+      <c r="AW12" s="88"/>
+      <c r="AX12" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="52"/>
+      <c r="AY12" s="96"/>
+      <c r="AZ12" s="97"/>
     </row>
     <row r="13" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
@@ -3069,68 +3237,68 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="58" t="s">
+      <c r="O13" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="48" t="s">
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="T13" s="61"/>
-      <c r="U13" s="58" t="s">
+      <c r="T13" s="87"/>
+      <c r="U13" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="58" t="s">
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="48" t="s">
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="48" t="s">
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="48" t="s">
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="AJ13" s="61"/>
-      <c r="AK13" s="48" t="s">
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="64" t="s">
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="48" t="s">
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="48" t="s">
+      <c r="AU13" s="88"/>
+      <c r="AV13" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="50" t="s">
+      <c r="AW13" s="88"/>
+      <c r="AX13" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="52"/>
+      <c r="AY13" s="96"/>
+      <c r="AZ13" s="97"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
@@ -3150,44 +3318,44 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="52"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="96"/>
+      <c r="AZ14" s="97"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
@@ -3207,44 +3375,44 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="61"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="61"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="61"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="52"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="86"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="86"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="95"/>
+      <c r="AY15" s="96"/>
+      <c r="AZ15" s="97"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
@@ -3264,44 +3432,44 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="61"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="49"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="52"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="85"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="86"/>
+      <c r="AU16" s="88"/>
+      <c r="AV16" s="86"/>
+      <c r="AW16" s="88"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="96"/>
+      <c r="AZ16" s="97"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
@@ -3321,44 +3489,44 @@
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="49"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="52"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="85"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="86"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="86"/>
+      <c r="AU17" s="88"/>
+      <c r="AV17" s="86"/>
+      <c r="AW17" s="88"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="96"/>
+      <c r="AZ17" s="97"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
@@ -3378,44 +3546,44 @@
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="52"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="85"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="86"/>
+      <c r="AU18" s="88"/>
+      <c r="AV18" s="86"/>
+      <c r="AW18" s="88"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="96"/>
+      <c r="AZ18" s="97"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
@@ -3435,44 +3603,44 @@
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="52"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="88"/>
+      <c r="AV19" s="86"/>
+      <c r="AW19" s="88"/>
+      <c r="AX19" s="95"/>
+      <c r="AY19" s="96"/>
+      <c r="AZ19" s="97"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
@@ -3492,44 +3660,44 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="49"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="52"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="87"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="88"/>
+      <c r="AV20" s="86"/>
+      <c r="AW20" s="88"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="96"/>
+      <c r="AZ20" s="97"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
@@ -3549,44 +3717,44 @@
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="52"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="86"/>
+      <c r="AU21" s="88"/>
+      <c r="AV21" s="86"/>
+      <c r="AW21" s="88"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="96"/>
+      <c r="AZ21" s="97"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
@@ -3606,44 +3774,44 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="64"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="52"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="86"/>
+      <c r="AL22" s="87"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="86"/>
+      <c r="AU22" s="88"/>
+      <c r="AV22" s="86"/>
+      <c r="AW22" s="88"/>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="96"/>
+      <c r="AZ22" s="97"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
@@ -3663,44 +3831,44 @@
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="52"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="87"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="91"/>
+      <c r="AT23" s="86"/>
+      <c r="AU23" s="88"/>
+      <c r="AV23" s="86"/>
+      <c r="AW23" s="88"/>
+      <c r="AX23" s="95"/>
+      <c r="AY23" s="96"/>
+      <c r="AZ23" s="97"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
@@ -3720,44 +3888,44 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="52"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="85"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="86"/>
+      <c r="AL24" s="87"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="86"/>
+      <c r="AU24" s="88"/>
+      <c r="AV24" s="86"/>
+      <c r="AW24" s="88"/>
+      <c r="AX24" s="95"/>
+      <c r="AY24" s="96"/>
+      <c r="AZ24" s="97"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
@@ -3777,44 +3945,44 @@
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="52"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="87"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="86"/>
+      <c r="AU25" s="88"/>
+      <c r="AV25" s="86"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="95"/>
+      <c r="AY25" s="96"/>
+      <c r="AZ25" s="97"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
@@ -3834,44 +4002,44 @@
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="48"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="50"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="52"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="84"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="86"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="89"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="86"/>
+      <c r="AU26" s="88"/>
+      <c r="AV26" s="86"/>
+      <c r="AW26" s="88"/>
+      <c r="AX26" s="95"/>
+      <c r="AY26" s="96"/>
+      <c r="AZ26" s="97"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
@@ -3891,44 +4059,44 @@
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="50"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="52"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="85"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="87"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="86"/>
+      <c r="AU27" s="88"/>
+      <c r="AV27" s="86"/>
+      <c r="AW27" s="88"/>
+      <c r="AX27" s="95"/>
+      <c r="AY27" s="96"/>
+      <c r="AZ27" s="97"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
@@ -3948,44 +4116,44 @@
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="52"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="85"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="86"/>
+      <c r="AL28" s="87"/>
+      <c r="AM28" s="89"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="90"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="90"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="86"/>
+      <c r="AU28" s="88"/>
+      <c r="AV28" s="86"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="95"/>
+      <c r="AY28" s="96"/>
+      <c r="AZ28" s="97"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
@@ -4005,44 +4173,44 @@
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="61"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="61"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="61"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="48"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="48"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="52"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="85"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="86"/>
+      <c r="AJ29" s="87"/>
+      <c r="AK29" s="86"/>
+      <c r="AL29" s="87"/>
+      <c r="AM29" s="89"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="91"/>
+      <c r="AT29" s="86"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="86"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="96"/>
+      <c r="AZ29" s="97"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
@@ -4062,44 +4230,44 @@
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="61"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="61"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="48"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="48"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="50"/>
-      <c r="AY30" s="51"/>
-      <c r="AZ30" s="52"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="86"/>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="89"/>
+      <c r="AN30" s="90"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="90"/>
+      <c r="AQ30" s="90"/>
+      <c r="AR30" s="90"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="86"/>
+      <c r="AU30" s="88"/>
+      <c r="AV30" s="86"/>
+      <c r="AW30" s="88"/>
+      <c r="AX30" s="95"/>
+      <c r="AY30" s="96"/>
+      <c r="AZ30" s="97"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
@@ -4119,44 +4287,44 @@
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="61"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="50"/>
-      <c r="AY31" s="51"/>
-      <c r="AZ31" s="52"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="84"/>
+      <c r="AC31" s="84"/>
+      <c r="AD31" s="85"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="86"/>
+      <c r="AL31" s="87"/>
+      <c r="AM31" s="89"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="86"/>
+      <c r="AU31" s="88"/>
+      <c r="AV31" s="86"/>
+      <c r="AW31" s="88"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="96"/>
+      <c r="AZ31" s="97"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
@@ -4176,44 +4344,44 @@
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="61"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="61"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="48"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="50"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="52"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="84"/>
+      <c r="W32" s="84"/>
+      <c r="X32" s="84"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="84"/>
+      <c r="AB32" s="84"/>
+      <c r="AC32" s="84"/>
+      <c r="AD32" s="85"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="86"/>
+      <c r="AL32" s="87"/>
+      <c r="AM32" s="89"/>
+      <c r="AN32" s="90"/>
+      <c r="AO32" s="90"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="90"/>
+      <c r="AR32" s="90"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="86"/>
+      <c r="AU32" s="88"/>
+      <c r="AV32" s="86"/>
+      <c r="AW32" s="88"/>
+      <c r="AX32" s="95"/>
+      <c r="AY32" s="96"/>
+      <c r="AZ32" s="97"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
@@ -4233,44 +4401,44 @@
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="61"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="48"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="48"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="50"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="52"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="84"/>
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="84"/>
+      <c r="AD33" s="85"/>
+      <c r="AE33" s="86"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="87"/>
+      <c r="AI33" s="86"/>
+      <c r="AJ33" s="87"/>
+      <c r="AK33" s="86"/>
+      <c r="AL33" s="87"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="90"/>
+      <c r="AO33" s="90"/>
+      <c r="AP33" s="90"/>
+      <c r="AQ33" s="90"/>
+      <c r="AR33" s="90"/>
+      <c r="AS33" s="91"/>
+      <c r="AT33" s="86"/>
+      <c r="AU33" s="88"/>
+      <c r="AV33" s="86"/>
+      <c r="AW33" s="88"/>
+      <c r="AX33" s="95"/>
+      <c r="AY33" s="96"/>
+      <c r="AZ33" s="97"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
@@ -4290,44 +4458,44 @@
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="17"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="61"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="48"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="48"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="52"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="84"/>
+      <c r="AC34" s="84"/>
+      <c r="AD34" s="85"/>
+      <c r="AE34" s="86"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="86"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="86"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="86"/>
+      <c r="AL34" s="87"/>
+      <c r="AM34" s="89"/>
+      <c r="AN34" s="90"/>
+      <c r="AO34" s="90"/>
+      <c r="AP34" s="90"/>
+      <c r="AQ34" s="90"/>
+      <c r="AR34" s="90"/>
+      <c r="AS34" s="91"/>
+      <c r="AT34" s="86"/>
+      <c r="AU34" s="88"/>
+      <c r="AV34" s="86"/>
+      <c r="AW34" s="88"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="96"/>
+      <c r="AZ34" s="97"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
@@ -4347,44 +4515,44 @@
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="61"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="65"/>
-      <c r="AP35" s="65"/>
-      <c r="AQ35" s="65"/>
-      <c r="AR35" s="65"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="48"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="48"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="50"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="52"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="88"/>
+      <c r="AG35" s="98"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="87"/>
+      <c r="AK35" s="86"/>
+      <c r="AL35" s="87"/>
+      <c r="AM35" s="89"/>
+      <c r="AN35" s="90"/>
+      <c r="AO35" s="90"/>
+      <c r="AP35" s="90"/>
+      <c r="AQ35" s="90"/>
+      <c r="AR35" s="90"/>
+      <c r="AS35" s="91"/>
+      <c r="AT35" s="86"/>
+      <c r="AU35" s="88"/>
+      <c r="AV35" s="86"/>
+      <c r="AW35" s="88"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="96"/>
+      <c r="AZ35" s="97"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="18">
@@ -4404,82 +4572,347 @@
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="21"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="40"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="40"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="43"/>
-      <c r="AT36" s="39"/>
-      <c r="AU36" s="44"/>
-      <c r="AV36" s="39"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="46"/>
-      <c r="AZ36" s="47"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="100"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="110"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="112"/>
+      <c r="AH36" s="113"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="101"/>
+      <c r="AK36" s="100"/>
+      <c r="AL36" s="101"/>
+      <c r="AM36" s="102"/>
+      <c r="AN36" s="103"/>
+      <c r="AO36" s="103"/>
+      <c r="AP36" s="103"/>
+      <c r="AQ36" s="103"/>
+      <c r="AR36" s="103"/>
+      <c r="AS36" s="104"/>
+      <c r="AT36" s="100"/>
+      <c r="AU36" s="105"/>
+      <c r="AV36" s="100"/>
+      <c r="AW36" s="105"/>
+      <c r="AX36" s="106"/>
+      <c r="AY36" s="107"/>
+      <c r="AZ36" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="359">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="AV36:AW36"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="AV35:AW35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AS35"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AS34"/>
+    <mergeCell ref="AT34:AU34"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AT32:AU32"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="AV33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AS32"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AS31"/>
+    <mergeCell ref="AT31:AU31"/>
+    <mergeCell ref="AV31:AW31"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AS28"/>
+    <mergeCell ref="AT28:AU28"/>
+    <mergeCell ref="AV28:AW28"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AV29:AW29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:Y10"/>
@@ -4504,306 +4937,41 @@
     <mergeCell ref="AT11:AU11"/>
     <mergeCell ref="AV11:AW11"/>
     <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4819,209 +4987,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="90" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="85" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="93" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="107"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="73"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="90" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="108" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="93" t="s">
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="85" t="s">
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="87">
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43">
         <v>41537</v>
       </c>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="85" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="86" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="85" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="85" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="85" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="85" t="s">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="86" t="s">
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -5043,14 +5211,14 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
       <c r="K8" s="22" t="s">
         <v>75</v>
       </c>
@@ -6721,13 +6889,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="E8:J8"/>
@@ -6744,6 +6905,13 @@
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6757,211 +6925,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:N9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12:AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="85" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="90" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="85" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="93" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="107"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="73"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="90" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="108" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="93" t="s">
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="85" t="s">
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="87">
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43">
         <v>41537</v>
       </c>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="85" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="86" t="s">
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="85" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="85" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="85" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="85" t="s">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="86" t="s">
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -7042,90 +7210,92 @@
       <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="76" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="76" t="s">
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="77"/>
-      <c r="U9" s="76" t="s">
+      <c r="T9" s="61"/>
+      <c r="U9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="76" t="s">
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="76" t="s">
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="76" t="s">
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="76" t="s">
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="76" t="s">
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="76" t="s">
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="76" t="s">
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="76" t="s">
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="79" t="s">
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AY9" s="80"/>
-      <c r="AZ9" s="81"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="58"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
-        <f t="shared" ref="A10:A36" si="0">ROW()-9</f>
+        <f t="shared" ref="A10:A26" si="0">ROW()-9</f>
         <v>1</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="130" t="s">
+        <v>82</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -7138,165 +7308,195 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="67"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="117"/>
-      <c r="AY10" s="118"/>
-      <c r="AZ10" s="119"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="124"/>
+      <c r="AY10" s="125"/>
+      <c r="AZ10" s="126"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="49"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="51"/>
-      <c r="AZ11" s="52"/>
+      <c r="B11" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="141"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="142"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="144"/>
+      <c r="AT11" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU11" s="88"/>
+      <c r="AV11" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="95"/>
+      <c r="AY11" s="96"/>
+      <c r="AZ11" s="97"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="115"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="52"/>
+      <c r="B12" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="T12" s="141"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="85"/>
+      <c r="AE12" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="86"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN12" s="143"/>
+      <c r="AO12" s="143"/>
+      <c r="AP12" s="143"/>
+      <c r="AQ12" s="143"/>
+      <c r="AR12" s="143"/>
+      <c r="AS12" s="144"/>
+      <c r="AT12" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU12" s="88"/>
+      <c r="AV12" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW12" s="88"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="96"/>
+      <c r="AZ12" s="97"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -7309,51 +7509,61 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="61"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="52"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" s="141"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU13" s="88"/>
+      <c r="AV13" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW13" s="88"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="96"/>
+      <c r="AZ13" s="97"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -7366,51 +7576,61 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="49"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="52"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="141"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="96"/>
+      <c r="AZ14" s="97"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -7423,51 +7643,61 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="61"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="61"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="61"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="52"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" s="141"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU15" s="88"/>
+      <c r="AV15" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW15" s="88"/>
+      <c r="AX15" s="95"/>
+      <c r="AY15" s="96"/>
+      <c r="AZ15" s="97"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -7480,51 +7710,61 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="61"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="49"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="52"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="141"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="85"/>
+      <c r="AE16" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU16" s="88"/>
+      <c r="AV16" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW16" s="88"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="96"/>
+      <c r="AZ16" s="97"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -7537,165 +7777,201 @@
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="49"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="52"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" s="141"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="85"/>
+      <c r="AE17" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="86"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU17" s="88"/>
+      <c r="AV17" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW17" s="88"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="96"/>
+      <c r="AZ17" s="97"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="52"/>
+      <c r="B18" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="T18" s="87"/>
+      <c r="U18" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="96"/>
+      <c r="AZ18" s="97"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="52"/>
+      <c r="B19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="88"/>
+      <c r="AV19" s="86"/>
+      <c r="AW19" s="88"/>
+      <c r="AX19" s="95"/>
+      <c r="AY19" s="96"/>
+      <c r="AZ19" s="97"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -7708,158 +7984,178 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="49"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="52"/>
+      <c r="O20" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="87"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="88"/>
+      <c r="AV20" s="86"/>
+      <c r="AW20" s="88"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="96"/>
+      <c r="AZ20" s="97"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="52"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="131"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="133"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="86"/>
+      <c r="AU21" s="88"/>
+      <c r="AV21" s="86"/>
+      <c r="AW21" s="88"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="96"/>
+      <c r="AZ21" s="97"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="64"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="52"/>
+      <c r="B22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="T22" s="87"/>
+      <c r="U22" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL22" s="87"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="86"/>
+      <c r="AU22" s="88"/>
+      <c r="AV22" s="86"/>
+      <c r="AW22" s="88"/>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="96"/>
+      <c r="AZ22" s="97"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
@@ -7879,44 +8175,44 @@
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="52"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="87"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="91"/>
+      <c r="AT23" s="86"/>
+      <c r="AU23" s="88"/>
+      <c r="AV23" s="86"/>
+      <c r="AW23" s="88"/>
+      <c r="AX23" s="95"/>
+      <c r="AY23" s="96"/>
+      <c r="AZ23" s="97"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
@@ -7936,44 +8232,44 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="52"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="85"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="86"/>
+      <c r="AL24" s="87"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="86"/>
+      <c r="AU24" s="88"/>
+      <c r="AV24" s="86"/>
+      <c r="AW24" s="88"/>
+      <c r="AX24" s="95"/>
+      <c r="AY24" s="96"/>
+      <c r="AZ24" s="97"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
@@ -7993,709 +8289,284 @@
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="52"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="87"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="86"/>
+      <c r="AU25" s="88"/>
+      <c r="AV25" s="86"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="95"/>
+      <c r="AY25" s="96"/>
+      <c r="AZ25" s="97"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
+      <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="48"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="50"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="52"/>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="50"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="52"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="52"/>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="61"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="61"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="61"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="48"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="48"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="52"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A30" s="14">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="61"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="61"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="48"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="48"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="50"/>
-      <c r="AY30" s="51"/>
-      <c r="AZ30" s="52"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A31" s="14">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="61"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="50"/>
-      <c r="AY31" s="51"/>
-      <c r="AZ31" s="52"/>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A32" s="14">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="61"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="61"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="48"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="50"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="52"/>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A33" s="14">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="61"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="48"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="48"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="50"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="52"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A34" s="14">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="61"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="48"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="48"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="52"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A35" s="14">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="61"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="65"/>
-      <c r="AP35" s="65"/>
-      <c r="AQ35" s="65"/>
-      <c r="AR35" s="65"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="48"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="48"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="50"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="52"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A36" s="18">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="40"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="40"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="43"/>
-      <c r="AT36" s="39"/>
-      <c r="AU36" s="44"/>
-      <c r="AV36" s="39"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="46"/>
-      <c r="AZ36" s="47"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="101"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="101"/>
+      <c r="AM26" s="102"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="103"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="104"/>
+      <c r="AT26" s="100"/>
+      <c r="AU26" s="105"/>
+      <c r="AV26" s="100"/>
+      <c r="AW26" s="105"/>
+      <c r="AX26" s="106"/>
+      <c r="AY26" s="107"/>
+      <c r="AZ26" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="359">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AZ9"/>
+  <mergeCells count="239">
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:Y10"/>
@@ -8720,306 +8591,41 @@
     <mergeCell ref="AT11:AU11"/>
     <mergeCell ref="AV11:AW11"/>
     <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AS29"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AS28"/>
-    <mergeCell ref="AT28:AU28"/>
-    <mergeCell ref="AV28:AW28"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AV29:AW29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AS32"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AS31"/>
-    <mergeCell ref="AT31:AU31"/>
-    <mergeCell ref="AV31:AW31"/>
-    <mergeCell ref="AT32:AU32"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AV33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AS35"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AS34"/>
-    <mergeCell ref="AT34:AU34"/>
-    <mergeCell ref="AV34:AW34"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
-    <mergeCell ref="AV36:AW36"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="AV35:AW35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/20 開発資料/02.画面設計/画面レイアウト(11_会場手配履歴).xlsx
+++ b/20 開発資料/02.画面設計/画面レイアウト(11_会場手配履歴).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="30" windowWidth="22290" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="4380" yWindow="30" windowWidth="19440" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3.3_0" sheetId="1" r:id="rId1"/>
@@ -21,24 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="104">
-  <si>
-    <t>ヤクルト国際大会
-名簿システム改修2009</t>
-    <rPh sb="4" eb="6">
-      <t>コクサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>メイボ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="145">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -605,20 +588,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>事業部</t>
-    <rPh sb="0" eb="2">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エリア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>営業所</t>
     <rPh sb="0" eb="3">
       <t>エイギョウショ</t>
@@ -687,6 +656,243 @@
   </si>
   <si>
     <t>TBL_KAIJO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TBL_KOUENKAI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS_USER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIME_STAMP_BYL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FROM_DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DDまたはYYYY/MM/DD～YYYY/MM/DD
+(From、Toを編集)</t>
+    <rPh sb="44" eb="46">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KOUENKAI_NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TO_DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BU</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BU</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TBL_KOUENKAI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KIKAKU_TANTO_AREA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TBL_KOUENKAI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KIKAKU_TANTO_EIGYOSHO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nozomiからの受信履歴を表示する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会名</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KOUENKAI_NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KOUENKAI_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固</t>
+    <rPh sb="0" eb="1">
+      <t>モトヨリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>固</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会場手配・見積依頼画面から起動される。</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会場手配・見積依頼画面に表示中のデータの</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒョウジチュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1082,7 +1288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,8 +1415,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,34 +1488,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,9 +1515,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,33 +1680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1483,8 +1689,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1495,37 +1722,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2244,79 +2444,58 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167444</xdr:rowOff>
+      <xdr:colOff>26671</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79057</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="C:\Work\TOPTOUR\Bayer\画面レイアウトGIF\KaijoRireki履歴.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="190501" y="1543050"/>
-          <a:ext cx="6610350" cy="2053394"/>
-          <a:chOff x="190501" y="1543050"/>
-          <a:chExt cx="6610350" cy="2053394"/>
+          <a:off x="200026" y="1543050"/>
+          <a:ext cx="6627495" cy="4193857"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="図 2"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="200025" y="1543050"/>
-            <a:ext cx="6600000" cy="380952"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="190501" y="1800225"/>
-            <a:ext cx="6610350" cy="1796219"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2618,240 +2797,240 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="42" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="47" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="50" t="s">
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="82"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="73"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="47" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="53" t="s">
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="50" t="s">
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="42" t="s">
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="60">
+        <v>39961</v>
+      </c>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43">
-        <v>39961</v>
-      </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="42" t="s">
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="46" t="s">
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-    </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="42" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="42" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="42" t="s">
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -2892,85 +3071,85 @@
     </row>
     <row r="9" spans="1:52" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59" t="s">
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="59" t="s">
+      <c r="T9" s="71"/>
+      <c r="U9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="61"/>
-      <c r="U9" s="59" t="s">
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="59" t="s">
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="59" t="s">
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="59" t="s">
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="59" t="s">
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="59" t="s">
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="59" t="s">
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="59" t="s">
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="58"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="68"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
@@ -2978,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2992,66 +3171,66 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="74" t="s">
+      <c r="O10" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77" t="s">
+      <c r="T10" s="87"/>
+      <c r="U10" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="78"/>
-      <c r="U10" s="74" t="s">
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="74" t="s">
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="77" t="s">
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="77" t="s">
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="86">
+        <v>8</v>
+      </c>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="77">
-        <v>8</v>
-      </c>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="77" t="s">
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="94"/>
-      <c r="AT10" s="77" t="s">
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="77" t="s">
+      <c r="AW10" s="88"/>
+      <c r="AX10" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY10" s="81"/>
-      <c r="AZ10" s="82"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="91"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
@@ -3059,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -3073,66 +3252,66 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="86" t="s">
+      <c r="T11" s="96"/>
+      <c r="U11" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="T11" s="87"/>
-      <c r="U11" s="83" t="s">
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="86" t="s">
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="95">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="100"/>
+      <c r="AT11" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="86">
-        <v>10</v>
-      </c>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="86" t="s">
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY11" s="96"/>
-      <c r="AZ11" s="97"/>
+      <c r="AY11" s="105"/>
+      <c r="AZ11" s="106"/>
     </row>
     <row r="12" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
@@ -3140,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -3154,68 +3333,68 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="86" t="s">
+      <c r="T12" s="96"/>
+      <c r="U12" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="87"/>
-      <c r="U12" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="83" t="s">
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="86" t="s">
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="95">
+        <v>20</v>
+      </c>
+      <c r="AJ12" s="96"/>
+      <c r="AK12" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="86">
-        <v>20</v>
-      </c>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="86" t="s">
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="100"/>
+      <c r="AT12" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="89" t="s">
+      <c r="AU12" s="97"/>
+      <c r="AV12" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW12" s="97"/>
+      <c r="AX12" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="91"/>
-      <c r="AT12" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU12" s="88"/>
-      <c r="AV12" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW12" s="88"/>
-      <c r="AX12" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY12" s="96"/>
-      <c r="AZ12" s="97"/>
+      <c r="AY12" s="105"/>
+      <c r="AZ12" s="106"/>
     </row>
     <row r="13" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
@@ -3223,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -3237,68 +3416,68 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="86" t="s">
+      <c r="T13" s="96"/>
+      <c r="U13" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="T13" s="87"/>
-      <c r="U13" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="86" t="s">
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="89" t="s">
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="100"/>
+      <c r="AT13" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="86" t="s">
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY13" s="96"/>
-      <c r="AZ13" s="97"/>
+      <c r="AY13" s="105"/>
+      <c r="AZ13" s="106"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
@@ -3318,44 +3497,44 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="87"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="90"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="96"/>
-      <c r="AZ14" s="97"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="96"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="96"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="100"/>
+      <c r="AT14" s="95"/>
+      <c r="AU14" s="97"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="97"/>
+      <c r="AX14" s="104"/>
+      <c r="AY14" s="105"/>
+      <c r="AZ14" s="106"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
@@ -3375,44 +3554,44 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="90"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="86"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="86"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="96"/>
-      <c r="AZ15" s="97"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="96"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="99"/>
+      <c r="AS15" s="100"/>
+      <c r="AT15" s="95"/>
+      <c r="AU15" s="96"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="96"/>
+      <c r="AX15" s="104"/>
+      <c r="AY15" s="105"/>
+      <c r="AZ15" s="106"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
@@ -3432,44 +3611,44 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="86"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="89"/>
-      <c r="AN16" s="90"/>
-      <c r="AO16" s="90"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="90"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="91"/>
-      <c r="AT16" s="86"/>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="86"/>
-      <c r="AW16" s="88"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="96"/>
-      <c r="AZ16" s="97"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="100"/>
+      <c r="AT16" s="95"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="97"/>
+      <c r="AX16" s="104"/>
+      <c r="AY16" s="105"/>
+      <c r="AZ16" s="106"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
@@ -3489,44 +3668,44 @@
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="86"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="90"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="86"/>
-      <c r="AU17" s="88"/>
-      <c r="AV17" s="86"/>
-      <c r="AW17" s="88"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="96"/>
-      <c r="AZ17" s="97"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="97"/>
+      <c r="AX17" s="104"/>
+      <c r="AY17" s="105"/>
+      <c r="AZ17" s="106"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
@@ -3546,44 +3725,44 @@
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="85"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="86"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="90"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="90"/>
-      <c r="AQ18" s="90"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="91"/>
-      <c r="AT18" s="86"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="86"/>
-      <c r="AW18" s="88"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="96"/>
-      <c r="AZ18" s="97"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="105"/>
+      <c r="AZ18" s="106"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
@@ -3603,44 +3782,44 @@
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="90"/>
-      <c r="AO19" s="90"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="90"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="88"/>
-      <c r="AV19" s="86"/>
-      <c r="AW19" s="88"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="96"/>
-      <c r="AZ19" s="97"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="95"/>
+      <c r="AU19" s="97"/>
+      <c r="AV19" s="95"/>
+      <c r="AW19" s="97"/>
+      <c r="AX19" s="104"/>
+      <c r="AY19" s="105"/>
+      <c r="AZ19" s="106"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
@@ -3660,44 +3839,44 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="87"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="90"/>
-      <c r="AO20" s="90"/>
-      <c r="AP20" s="90"/>
-      <c r="AQ20" s="90"/>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="88"/>
-      <c r="AV20" s="86"/>
-      <c r="AW20" s="88"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="96"/>
-      <c r="AZ20" s="97"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="96"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="96"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="97"/>
+      <c r="AX20" s="104"/>
+      <c r="AY20" s="105"/>
+      <c r="AZ20" s="106"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
@@ -3717,44 +3896,44 @@
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="90"/>
-      <c r="AO21" s="90"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="90"/>
-      <c r="AR21" s="90"/>
-      <c r="AS21" s="91"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="88"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="88"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="96"/>
-      <c r="AZ21" s="97"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="96"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="99"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="100"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="97"/>
+      <c r="AX21" s="104"/>
+      <c r="AY21" s="105"/>
+      <c r="AZ21" s="106"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
@@ -3774,44 +3953,44 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="86"/>
-      <c r="AL22" s="87"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="90"/>
-      <c r="AR22" s="90"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="86"/>
-      <c r="AW22" s="88"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="96"/>
-      <c r="AZ22" s="97"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="95"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="95"/>
+      <c r="AW22" s="97"/>
+      <c r="AX22" s="104"/>
+      <c r="AY22" s="105"/>
+      <c r="AZ22" s="106"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
@@ -3831,44 +4010,44 @@
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="90"/>
-      <c r="AO23" s="90"/>
-      <c r="AP23" s="90"/>
-      <c r="AQ23" s="90"/>
-      <c r="AR23" s="90"/>
-      <c r="AS23" s="91"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="88"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="88"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="96"/>
-      <c r="AZ23" s="97"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="100"/>
+      <c r="AT23" s="95"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="95"/>
+      <c r="AW23" s="97"/>
+      <c r="AX23" s="104"/>
+      <c r="AY23" s="105"/>
+      <c r="AZ23" s="106"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
@@ -3888,44 +4067,44 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="86"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="86"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="86"/>
-      <c r="AL24" s="87"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="90"/>
-      <c r="AO24" s="90"/>
-      <c r="AP24" s="90"/>
-      <c r="AQ24" s="90"/>
-      <c r="AR24" s="90"/>
-      <c r="AS24" s="91"/>
-      <c r="AT24" s="86"/>
-      <c r="AU24" s="88"/>
-      <c r="AV24" s="86"/>
-      <c r="AW24" s="88"/>
-      <c r="AX24" s="95"/>
-      <c r="AY24" s="96"/>
-      <c r="AZ24" s="97"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="96"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="96"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="99"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="95"/>
+      <c r="AU24" s="97"/>
+      <c r="AV24" s="95"/>
+      <c r="AW24" s="97"/>
+      <c r="AX24" s="104"/>
+      <c r="AY24" s="105"/>
+      <c r="AZ24" s="106"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
@@ -3945,44 +4124,44 @@
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="87"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="90"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="90"/>
-      <c r="AR25" s="90"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="86"/>
-      <c r="AU25" s="88"/>
-      <c r="AV25" s="86"/>
-      <c r="AW25" s="88"/>
-      <c r="AX25" s="95"/>
-      <c r="AY25" s="96"/>
-      <c r="AZ25" s="97"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="96"/>
+      <c r="AK25" s="95"/>
+      <c r="AL25" s="96"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="100"/>
+      <c r="AT25" s="95"/>
+      <c r="AU25" s="97"/>
+      <c r="AV25" s="95"/>
+      <c r="AW25" s="97"/>
+      <c r="AX25" s="104"/>
+      <c r="AY25" s="105"/>
+      <c r="AZ25" s="106"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
@@ -4002,44 +4181,44 @@
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="86"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="90"/>
-      <c r="AO26" s="90"/>
-      <c r="AP26" s="90"/>
-      <c r="AQ26" s="90"/>
-      <c r="AR26" s="90"/>
-      <c r="AS26" s="91"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="88"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="88"/>
-      <c r="AX26" s="95"/>
-      <c r="AY26" s="96"/>
-      <c r="AZ26" s="97"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="99"/>
+      <c r="AO26" s="99"/>
+      <c r="AP26" s="99"/>
+      <c r="AQ26" s="99"/>
+      <c r="AR26" s="99"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="95"/>
+      <c r="AU26" s="97"/>
+      <c r="AV26" s="95"/>
+      <c r="AW26" s="97"/>
+      <c r="AX26" s="104"/>
+      <c r="AY26" s="105"/>
+      <c r="AZ26" s="106"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
@@ -4059,44 +4238,44 @@
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="86"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="86"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="86"/>
-      <c r="AL27" s="87"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="90"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="90"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="91"/>
-      <c r="AT27" s="86"/>
-      <c r="AU27" s="88"/>
-      <c r="AV27" s="86"/>
-      <c r="AW27" s="88"/>
-      <c r="AX27" s="95"/>
-      <c r="AY27" s="96"/>
-      <c r="AZ27" s="97"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="96"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="96"/>
+      <c r="AK27" s="95"/>
+      <c r="AL27" s="96"/>
+      <c r="AM27" s="98"/>
+      <c r="AN27" s="99"/>
+      <c r="AO27" s="99"/>
+      <c r="AP27" s="99"/>
+      <c r="AQ27" s="99"/>
+      <c r="AR27" s="99"/>
+      <c r="AS27" s="100"/>
+      <c r="AT27" s="95"/>
+      <c r="AU27" s="97"/>
+      <c r="AV27" s="95"/>
+      <c r="AW27" s="97"/>
+      <c r="AX27" s="104"/>
+      <c r="AY27" s="105"/>
+      <c r="AZ27" s="106"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
@@ -4116,44 +4295,44 @@
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="84"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="86"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="86"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="86"/>
-      <c r="AL28" s="87"/>
-      <c r="AM28" s="89"/>
-      <c r="AN28" s="90"/>
-      <c r="AO28" s="90"/>
-      <c r="AP28" s="90"/>
-      <c r="AQ28" s="90"/>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="86"/>
-      <c r="AU28" s="88"/>
-      <c r="AV28" s="86"/>
-      <c r="AW28" s="88"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="96"/>
-      <c r="AZ28" s="97"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="94"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="107"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="95"/>
+      <c r="AL28" s="96"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="99"/>
+      <c r="AO28" s="99"/>
+      <c r="AP28" s="99"/>
+      <c r="AQ28" s="99"/>
+      <c r="AR28" s="99"/>
+      <c r="AS28" s="100"/>
+      <c r="AT28" s="95"/>
+      <c r="AU28" s="97"/>
+      <c r="AV28" s="95"/>
+      <c r="AW28" s="97"/>
+      <c r="AX28" s="104"/>
+      <c r="AY28" s="105"/>
+      <c r="AZ28" s="106"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
@@ -4173,44 +4352,44 @@
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="86"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="86"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="86"/>
-      <c r="AL29" s="87"/>
-      <c r="AM29" s="89"/>
-      <c r="AN29" s="90"/>
-      <c r="AO29" s="90"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="90"/>
-      <c r="AR29" s="90"/>
-      <c r="AS29" s="91"/>
-      <c r="AT29" s="86"/>
-      <c r="AU29" s="88"/>
-      <c r="AV29" s="86"/>
-      <c r="AW29" s="88"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="96"/>
-      <c r="AZ29" s="97"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="96"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="96"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="96"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="99"/>
+      <c r="AO29" s="99"/>
+      <c r="AP29" s="99"/>
+      <c r="AQ29" s="99"/>
+      <c r="AR29" s="99"/>
+      <c r="AS29" s="100"/>
+      <c r="AT29" s="95"/>
+      <c r="AU29" s="97"/>
+      <c r="AV29" s="95"/>
+      <c r="AW29" s="97"/>
+      <c r="AX29" s="104"/>
+      <c r="AY29" s="105"/>
+      <c r="AZ29" s="106"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
@@ -4230,44 +4409,44 @@
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="86"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="86"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="86"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="89"/>
-      <c r="AN30" s="90"/>
-      <c r="AO30" s="90"/>
-      <c r="AP30" s="90"/>
-      <c r="AQ30" s="90"/>
-      <c r="AR30" s="90"/>
-      <c r="AS30" s="91"/>
-      <c r="AT30" s="86"/>
-      <c r="AU30" s="88"/>
-      <c r="AV30" s="86"/>
-      <c r="AW30" s="88"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="96"/>
-      <c r="AZ30" s="97"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="96"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="96"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="99"/>
+      <c r="AO30" s="99"/>
+      <c r="AP30" s="99"/>
+      <c r="AQ30" s="99"/>
+      <c r="AR30" s="99"/>
+      <c r="AS30" s="100"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="97"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="97"/>
+      <c r="AX30" s="104"/>
+      <c r="AY30" s="105"/>
+      <c r="AZ30" s="106"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
@@ -4287,44 +4466,44 @@
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="83"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="85"/>
-      <c r="AE31" s="86"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="86"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="86"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="89"/>
-      <c r="AN31" s="90"/>
-      <c r="AO31" s="90"/>
-      <c r="AP31" s="90"/>
-      <c r="AQ31" s="90"/>
-      <c r="AR31" s="90"/>
-      <c r="AS31" s="91"/>
-      <c r="AT31" s="86"/>
-      <c r="AU31" s="88"/>
-      <c r="AV31" s="86"/>
-      <c r="AW31" s="88"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="96"/>
-      <c r="AZ31" s="97"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="96"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="96"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="99"/>
+      <c r="AO31" s="99"/>
+      <c r="AP31" s="99"/>
+      <c r="AQ31" s="99"/>
+      <c r="AR31" s="99"/>
+      <c r="AS31" s="100"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="97"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="97"/>
+      <c r="AX31" s="104"/>
+      <c r="AY31" s="105"/>
+      <c r="AZ31" s="106"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
@@ -4344,44 +4523,44 @@
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="83"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="83"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="86"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="86"/>
-      <c r="AJ32" s="87"/>
-      <c r="AK32" s="86"/>
-      <c r="AL32" s="87"/>
-      <c r="AM32" s="89"/>
-      <c r="AN32" s="90"/>
-      <c r="AO32" s="90"/>
-      <c r="AP32" s="90"/>
-      <c r="AQ32" s="90"/>
-      <c r="AR32" s="90"/>
-      <c r="AS32" s="91"/>
-      <c r="AT32" s="86"/>
-      <c r="AU32" s="88"/>
-      <c r="AV32" s="86"/>
-      <c r="AW32" s="88"/>
-      <c r="AX32" s="95"/>
-      <c r="AY32" s="96"/>
-      <c r="AZ32" s="97"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="107"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="95"/>
+      <c r="AJ32" s="96"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="96"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="99"/>
+      <c r="AO32" s="99"/>
+      <c r="AP32" s="99"/>
+      <c r="AQ32" s="99"/>
+      <c r="AR32" s="99"/>
+      <c r="AS32" s="100"/>
+      <c r="AT32" s="95"/>
+      <c r="AU32" s="97"/>
+      <c r="AV32" s="95"/>
+      <c r="AW32" s="97"/>
+      <c r="AX32" s="104"/>
+      <c r="AY32" s="105"/>
+      <c r="AZ32" s="106"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
@@ -4401,44 +4580,44 @@
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="83"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="86"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="86"/>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="86"/>
-      <c r="AL33" s="87"/>
-      <c r="AM33" s="89"/>
-      <c r="AN33" s="90"/>
-      <c r="AO33" s="90"/>
-      <c r="AP33" s="90"/>
-      <c r="AQ33" s="90"/>
-      <c r="AR33" s="90"/>
-      <c r="AS33" s="91"/>
-      <c r="AT33" s="86"/>
-      <c r="AU33" s="88"/>
-      <c r="AV33" s="86"/>
-      <c r="AW33" s="88"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="96"/>
-      <c r="AZ33" s="97"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="95"/>
+      <c r="AJ33" s="96"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="99"/>
+      <c r="AO33" s="99"/>
+      <c r="AP33" s="99"/>
+      <c r="AQ33" s="99"/>
+      <c r="AR33" s="99"/>
+      <c r="AS33" s="100"/>
+      <c r="AT33" s="95"/>
+      <c r="AU33" s="97"/>
+      <c r="AV33" s="95"/>
+      <c r="AW33" s="97"/>
+      <c r="AX33" s="104"/>
+      <c r="AY33" s="105"/>
+      <c r="AZ33" s="106"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
@@ -4458,44 +4637,44 @@
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="17"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="86"/>
-      <c r="AF34" s="88"/>
-      <c r="AG34" s="86"/>
-      <c r="AH34" s="87"/>
-      <c r="AI34" s="86"/>
-      <c r="AJ34" s="87"/>
-      <c r="AK34" s="86"/>
-      <c r="AL34" s="87"/>
-      <c r="AM34" s="89"/>
-      <c r="AN34" s="90"/>
-      <c r="AO34" s="90"/>
-      <c r="AP34" s="90"/>
-      <c r="AQ34" s="90"/>
-      <c r="AR34" s="90"/>
-      <c r="AS34" s="91"/>
-      <c r="AT34" s="86"/>
-      <c r="AU34" s="88"/>
-      <c r="AV34" s="86"/>
-      <c r="AW34" s="88"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="96"/>
-      <c r="AZ34" s="97"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="92"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="96"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="96"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="96"/>
+      <c r="AM34" s="98"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="99"/>
+      <c r="AS34" s="100"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="97"/>
+      <c r="AV34" s="95"/>
+      <c r="AW34" s="97"/>
+      <c r="AX34" s="104"/>
+      <c r="AY34" s="105"/>
+      <c r="AZ34" s="106"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
@@ -4515,44 +4694,44 @@
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="83"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="88"/>
-      <c r="AG35" s="98"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="86"/>
-      <c r="AJ35" s="87"/>
-      <c r="AK35" s="86"/>
-      <c r="AL35" s="87"/>
-      <c r="AM35" s="89"/>
-      <c r="AN35" s="90"/>
-      <c r="AO35" s="90"/>
-      <c r="AP35" s="90"/>
-      <c r="AQ35" s="90"/>
-      <c r="AR35" s="90"/>
-      <c r="AS35" s="91"/>
-      <c r="AT35" s="86"/>
-      <c r="AU35" s="88"/>
-      <c r="AV35" s="86"/>
-      <c r="AW35" s="88"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="96"/>
-      <c r="AZ35" s="97"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="108"/>
+      <c r="AI35" s="95"/>
+      <c r="AJ35" s="96"/>
+      <c r="AK35" s="95"/>
+      <c r="AL35" s="96"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" s="99"/>
+      <c r="AO35" s="99"/>
+      <c r="AP35" s="99"/>
+      <c r="AQ35" s="99"/>
+      <c r="AR35" s="99"/>
+      <c r="AS35" s="100"/>
+      <c r="AT35" s="95"/>
+      <c r="AU35" s="97"/>
+      <c r="AV35" s="95"/>
+      <c r="AW35" s="97"/>
+      <c r="AX35" s="104"/>
+      <c r="AY35" s="105"/>
+      <c r="AZ35" s="106"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="18">
@@ -4572,44 +4751,44 @@
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="21"/>
-      <c r="O36" s="109"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="109"/>
-      <c r="V36" s="110"/>
-      <c r="W36" s="110"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="109"/>
-      <c r="AA36" s="110"/>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="111"/>
-      <c r="AE36" s="100"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="113"/>
-      <c r="AI36" s="100"/>
-      <c r="AJ36" s="101"/>
-      <c r="AK36" s="100"/>
-      <c r="AL36" s="101"/>
-      <c r="AM36" s="102"/>
-      <c r="AN36" s="103"/>
-      <c r="AO36" s="103"/>
-      <c r="AP36" s="103"/>
-      <c r="AQ36" s="103"/>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="104"/>
-      <c r="AT36" s="100"/>
-      <c r="AU36" s="105"/>
-      <c r="AV36" s="100"/>
-      <c r="AW36" s="105"/>
-      <c r="AX36" s="106"/>
-      <c r="AY36" s="107"/>
-      <c r="AZ36" s="108"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="119"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="118"/>
+      <c r="V36" s="119"/>
+      <c r="W36" s="119"/>
+      <c r="X36" s="119"/>
+      <c r="Y36" s="120"/>
+      <c r="Z36" s="118"/>
+      <c r="AA36" s="119"/>
+      <c r="AB36" s="119"/>
+      <c r="AC36" s="119"/>
+      <c r="AD36" s="120"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="114"/>
+      <c r="AG36" s="121"/>
+      <c r="AH36" s="122"/>
+      <c r="AI36" s="109"/>
+      <c r="AJ36" s="110"/>
+      <c r="AK36" s="109"/>
+      <c r="AL36" s="110"/>
+      <c r="AM36" s="111"/>
+      <c r="AN36" s="112"/>
+      <c r="AO36" s="112"/>
+      <c r="AP36" s="112"/>
+      <c r="AQ36" s="112"/>
+      <c r="AR36" s="112"/>
+      <c r="AS36" s="113"/>
+      <c r="AT36" s="109"/>
+      <c r="AU36" s="114"/>
+      <c r="AV36" s="109"/>
+      <c r="AW36" s="114"/>
+      <c r="AX36" s="115"/>
+      <c r="AY36" s="116"/>
+      <c r="AZ36" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="359">
@@ -4961,6 +5140,8 @@
     <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
@@ -4970,8 +5151,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4987,246 +5166,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="82"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="60">
+        <v>41555</v>
+      </c>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="73"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43">
-        <v>41537</v>
-      </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="42" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="42" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="42" t="s">
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
-      <c r="E8" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
+      <c r="E8" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
       <c r="K8" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
       <c r="O8" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
@@ -5250,7 +5429,7 @@
       <c r="AI8" s="27"/>
       <c r="AJ8" s="28"/>
       <c r="AK8" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL8" s="30"/>
       <c r="AM8" s="30"/>
@@ -5359,6 +5538,9 @@
       <c r="AH10" s="33"/>
       <c r="AI10" s="34"/>
       <c r="AJ10" s="32"/>
+      <c r="AK10" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="AL10" s="33"/>
       <c r="AM10" s="33"/>
       <c r="AN10" s="33"/>
@@ -5466,7 +5648,9 @@
       <c r="AH12" s="33"/>
       <c r="AI12" s="34"/>
       <c r="AJ12" s="32"/>
-      <c r="AK12" s="35"/>
+      <c r="AK12" s="35" t="s">
+        <v>144</v>
+      </c>
       <c r="AL12" s="33"/>
       <c r="AM12" s="33"/>
       <c r="AN12" s="33"/>
@@ -5520,7 +5704,9 @@
       <c r="AH13" s="33"/>
       <c r="AI13" s="34"/>
       <c r="AJ13" s="32"/>
-      <c r="AK13" s="35"/>
+      <c r="AK13" s="35" t="s">
+        <v>136</v>
+      </c>
       <c r="AL13" s="33"/>
       <c r="AM13" s="33"/>
       <c r="AN13" s="33"/>
@@ -5574,7 +5760,6 @@
       <c r="AH14" s="33"/>
       <c r="AI14" s="34"/>
       <c r="AJ14" s="32"/>
-      <c r="AK14" s="33"/>
       <c r="AL14" s="33"/>
       <c r="AM14" s="33"/>
       <c r="AN14" s="33"/>
@@ -5682,7 +5867,7 @@
       <c r="AH16" s="33"/>
       <c r="AI16" s="34"/>
       <c r="AJ16" s="32"/>
-      <c r="AK16" s="33"/>
+      <c r="AK16" s="35"/>
       <c r="AL16" s="33"/>
       <c r="AM16" s="33"/>
       <c r="AN16" s="33"/>
@@ -5736,7 +5921,7 @@
       <c r="AH17" s="33"/>
       <c r="AI17" s="34"/>
       <c r="AJ17" s="32"/>
-      <c r="AK17" s="33"/>
+      <c r="AK17" s="35"/>
       <c r="AL17" s="33"/>
       <c r="AM17" s="33"/>
       <c r="AN17" s="33"/>
@@ -6925,249 +7110,249 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ26"/>
+  <dimension ref="A1:AZ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12:AD12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="82"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="60">
+        <v>41555</v>
+      </c>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="AZ1" s="73"/>
-    </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43">
-        <v>41537</v>
-      </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="42" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="42" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="42" t="s">
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -7208,829 +7393,949 @@
     </row>
     <row r="9" spans="1:52" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="T9" s="61"/>
-      <c r="U9" s="59" t="s">
+      <c r="T9" s="71"/>
+      <c r="U9" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="59" t="s">
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="59" t="s">
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="59" t="s">
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="59" t="s">
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="59" t="s">
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="59" t="s">
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="59" t="s">
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="59" t="s">
+      <c r="AW9" s="71"/>
+      <c r="AX9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="58"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="68"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <f t="shared" ref="A10:A26" si="0">ROW()-9</f>
+      <c r="A10" s="14">
+        <f t="shared" ref="A10:A27" si="0">ROW()-9</f>
         <v>1</v>
       </c>
-      <c r="B10" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="94"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="125"/>
-      <c r="AZ10" s="126"/>
+      <c r="B10" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" s="96"/>
+      <c r="U10" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="129"/>
+      <c r="AE10" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="95">
+        <v>14</v>
+      </c>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="100"/>
+      <c r="AT10" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU10" s="96"/>
+      <c r="AV10" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW10" s="96"/>
+      <c r="AX10" s="104"/>
+      <c r="AY10" s="105"/>
+      <c r="AZ10" s="106"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B11" s="134" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="T11" s="141"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="142"/>
-      <c r="AN11" s="143"/>
-      <c r="AO11" s="143"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="144"/>
-      <c r="AT11" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="95"/>
-      <c r="AY11" s="96"/>
-      <c r="AZ11" s="97"/>
+      <c r="B11" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="T11" s="96"/>
+      <c r="U11" s="127" t="s">
+        <v>139</v>
+      </c>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="95">
+        <v>80</v>
+      </c>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="100"/>
+      <c r="AT11" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU11" s="96"/>
+      <c r="AV11" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW11" s="96"/>
+      <c r="AX11" s="104"/>
+      <c r="AY11" s="105"/>
+      <c r="AZ11" s="106"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" s="134" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="T12" s="141"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="86"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN12" s="143"/>
-      <c r="AO12" s="143"/>
-      <c r="AP12" s="143"/>
-      <c r="AQ12" s="143"/>
-      <c r="AR12" s="143"/>
-      <c r="AS12" s="144"/>
-      <c r="AT12" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU12" s="88"/>
-      <c r="AV12" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW12" s="88"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="96"/>
-      <c r="AZ12" s="97"/>
+      <c r="B12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="96"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="98"/>
+      <c r="AN12" s="141"/>
+      <c r="AO12" s="141"/>
+      <c r="AP12" s="141"/>
+      <c r="AQ12" s="141"/>
+      <c r="AR12" s="141"/>
+      <c r="AS12" s="142"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="96"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="96"/>
+      <c r="AX12" s="104"/>
+      <c r="AY12" s="105"/>
+      <c r="AZ12" s="106"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="T13" s="141"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="96"/>
-      <c r="AZ13" s="97"/>
+      <c r="B13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="131"/>
+      <c r="U13" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="95">
+        <v>14</v>
+      </c>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN13" s="133"/>
+      <c r="AO13" s="133"/>
+      <c r="AP13" s="133"/>
+      <c r="AQ13" s="133"/>
+      <c r="AR13" s="133"/>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="104"/>
+      <c r="AY13" s="105"/>
+      <c r="AZ13" s="106"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="140" t="s">
+      <c r="B14" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="T14" s="141"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="87"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="90"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="96"/>
-      <c r="AZ14" s="97"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="131"/>
+      <c r="U14" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF14" s="96"/>
+      <c r="AG14" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH14" s="96"/>
+      <c r="AI14" s="95">
+        <v>14</v>
+      </c>
+      <c r="AJ14" s="96"/>
+      <c r="AK14" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN14" s="133"/>
+      <c r="AO14" s="133"/>
+      <c r="AP14" s="133"/>
+      <c r="AQ14" s="133"/>
+      <c r="AR14" s="133"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU14" s="97"/>
+      <c r="AV14" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW14" s="97"/>
+      <c r="AX14" s="104"/>
+      <c r="AY14" s="105"/>
+      <c r="AZ14" s="106"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="T15" s="141"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="90"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU15" s="88"/>
-      <c r="AV15" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="96"/>
-      <c r="AZ15" s="97"/>
+      <c r="B15" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" s="96"/>
+      <c r="U15" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="129"/>
+      <c r="AE15" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="95">
+        <v>40</v>
+      </c>
+      <c r="AJ15" s="96"/>
+      <c r="AK15" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="99"/>
+      <c r="AS15" s="100"/>
+      <c r="AT15" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU15" s="96"/>
+      <c r="AV15" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW15" s="96"/>
+      <c r="AX15" s="104"/>
+      <c r="AY15" s="105"/>
+      <c r="AZ15" s="106"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="T16" s="141"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="86"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="89"/>
-      <c r="AN16" s="90"/>
-      <c r="AO16" s="90"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="90"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="91"/>
-      <c r="AT16" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW16" s="88"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="96"/>
-      <c r="AZ16" s="97"/>
+      <c r="B16" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="T16" s="96"/>
+      <c r="U16" s="127" t="s">
+        <v>129</v>
+      </c>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="129"/>
+      <c r="Z16" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="129"/>
+      <c r="AE16" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="95">
+        <v>80</v>
+      </c>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="100"/>
+      <c r="AT16" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU16" s="96"/>
+      <c r="AV16" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW16" s="96"/>
+      <c r="AX16" s="104"/>
+      <c r="AY16" s="105"/>
+      <c r="AZ16" s="106"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="141"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="86"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="90"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU17" s="88"/>
-      <c r="AV17" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW17" s="88"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="96"/>
-      <c r="AZ17" s="97"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="B17" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="96"/>
+      <c r="U17" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="129"/>
+      <c r="AE17" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="95">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU17" s="96"/>
+      <c r="AV17" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW17" s="96"/>
+      <c r="AX17" s="104"/>
+      <c r="AY17" s="105"/>
+      <c r="AZ17" s="106"/>
+    </row>
+    <row r="18" spans="1:52" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
+      <c r="B18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="127" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P18" s="128"/>
       <c r="Q18" s="128"/>
       <c r="R18" s="129"/>
-      <c r="S18" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="T18" s="87"/>
-      <c r="U18" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="133"/>
-      <c r="AE18" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="90"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="90"/>
-      <c r="AQ18" s="90"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="91"/>
-      <c r="AT18" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="96"/>
-      <c r="AZ18" s="97"/>
+      <c r="S18" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" s="131"/>
+      <c r="U18" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="V18" s="136"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="129"/>
+      <c r="AE18" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="95">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL18" s="131"/>
+      <c r="AM18" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN18" s="133"/>
+      <c r="AO18" s="133"/>
+      <c r="AP18" s="133"/>
+      <c r="AQ18" s="133"/>
+      <c r="AR18" s="133"/>
+      <c r="AS18" s="134"/>
+      <c r="AT18" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="105"/>
+      <c r="AZ18" s="106"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
+      <c r="B19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="127" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P19" s="128"/>
       <c r="Q19" s="128"/>
       <c r="R19" s="129"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="90"/>
-      <c r="AO19" s="90"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="90"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="88"/>
-      <c r="AV19" s="86"/>
-      <c r="AW19" s="88"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="96"/>
-      <c r="AZ19" s="97"/>
+      <c r="S19" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="T19" s="131"/>
+      <c r="U19" s="127" t="s">
+        <v>113</v>
+      </c>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="129"/>
+      <c r="AE19" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF19" s="96"/>
+      <c r="AG19" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="95">
+        <v>100</v>
+      </c>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU19" s="97"/>
+      <c r="AV19" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW19" s="97"/>
+      <c r="AX19" s="104"/>
+      <c r="AY19" s="105"/>
+      <c r="AZ19" s="106"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
+      <c r="B20" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="127" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="P20" s="128"/>
       <c r="Q20" s="128"/>
       <c r="R20" s="129"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="87"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="90"/>
-      <c r="AO20" s="90"/>
-      <c r="AP20" s="90"/>
-      <c r="AQ20" s="90"/>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="88"/>
-      <c r="AV20" s="86"/>
-      <c r="AW20" s="88"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="96"/>
-      <c r="AZ20" s="97"/>
+      <c r="S20" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" s="96"/>
+      <c r="U20" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH20" s="96"/>
+      <c r="AI20" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ20" s="96"/>
+      <c r="AK20" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL20" s="96"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU20" s="96"/>
+      <c r="AV20" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW20" s="96"/>
+      <c r="AX20" s="104"/>
+      <c r="AY20" s="105"/>
+      <c r="AZ20" s="106"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>96</v>
+      </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -8043,176 +8348,222 @@
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="41"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="132"/>
-      <c r="AD21" s="133"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="90"/>
-      <c r="AO21" s="90"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="90"/>
-      <c r="AR21" s="90"/>
-      <c r="AS21" s="91"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="88"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="88"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="96"/>
-      <c r="AZ21" s="97"/>
+      <c r="O21" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="T21" s="96"/>
+      <c r="U21" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="129"/>
+      <c r="AE21" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="95">
+        <v>14</v>
+      </c>
+      <c r="AJ21" s="96"/>
+      <c r="AK21" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="99"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="100"/>
+      <c r="AT21" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU21" s="96"/>
+      <c r="AV21" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW21" s="96"/>
+      <c r="AX21" s="104"/>
+      <c r="AY21" s="105"/>
+      <c r="AZ21" s="106"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="86" t="s">
+      <c r="B22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="T22" s="96"/>
+      <c r="U22" s="127" t="s">
+        <v>116</v>
+      </c>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="129"/>
+      <c r="Z22" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="129"/>
+      <c r="AE22" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF22" s="96"/>
+      <c r="AG22" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="95">
+        <v>8</v>
+      </c>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="T22" s="87"/>
-      <c r="U22" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="133"/>
-      <c r="AE22" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL22" s="87"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="90"/>
-      <c r="AR22" s="90"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="86"/>
-      <c r="AW22" s="88"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="96"/>
-      <c r="AZ22" s="97"/>
+      <c r="AU22" s="96"/>
+      <c r="AV22" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW22" s="96"/>
+      <c r="AX22" s="104"/>
+      <c r="AY22" s="105"/>
+      <c r="AZ22" s="106"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="90"/>
-      <c r="AO23" s="90"/>
-      <c r="AP23" s="90"/>
-      <c r="AQ23" s="90"/>
-      <c r="AR23" s="90"/>
-      <c r="AS23" s="91"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="88"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="88"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="96"/>
-      <c r="AZ23" s="97"/>
+      <c r="B23" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="96"/>
+      <c r="U23" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF23" s="96"/>
+      <c r="AG23" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="100"/>
+      <c r="AT23" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU23" s="96"/>
+      <c r="AV23" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW23" s="96"/>
+      <c r="AX23" s="104"/>
+      <c r="AY23" s="105"/>
+      <c r="AZ23" s="106"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
@@ -8232,44 +8583,44 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="86"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="86"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="86"/>
-      <c r="AL24" s="87"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="90"/>
-      <c r="AO24" s="90"/>
-      <c r="AP24" s="90"/>
-      <c r="AQ24" s="90"/>
-      <c r="AR24" s="90"/>
-      <c r="AS24" s="91"/>
-      <c r="AT24" s="86"/>
-      <c r="AU24" s="88"/>
-      <c r="AV24" s="86"/>
-      <c r="AW24" s="88"/>
-      <c r="AX24" s="95"/>
-      <c r="AY24" s="96"/>
-      <c r="AZ24" s="97"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="96"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="96"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="96"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="99"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="95"/>
+      <c r="AU24" s="97"/>
+      <c r="AV24" s="95"/>
+      <c r="AW24" s="97"/>
+      <c r="AX24" s="104"/>
+      <c r="AY24" s="105"/>
+      <c r="AZ24" s="106"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
@@ -8289,289 +8640,163 @@
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="98"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="87"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="90"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="90"/>
-      <c r="AR25" s="90"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="86"/>
-      <c r="AU25" s="88"/>
-      <c r="AV25" s="86"/>
-      <c r="AW25" s="88"/>
-      <c r="AX25" s="95"/>
-      <c r="AY25" s="96"/>
-      <c r="AZ25" s="97"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="96"/>
+      <c r="AK25" s="95"/>
+      <c r="AL25" s="96"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="100"/>
+      <c r="AT25" s="95"/>
+      <c r="AU25" s="97"/>
+      <c r="AV25" s="95"/>
+      <c r="AW25" s="97"/>
+      <c r="AX25" s="104"/>
+      <c r="AY25" s="105"/>
+      <c r="AZ25" s="106"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A26" s="18">
+      <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="111"/>
-      <c r="AE26" s="100"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="113"/>
-      <c r="AI26" s="100"/>
-      <c r="AJ26" s="101"/>
-      <c r="AK26" s="100"/>
-      <c r="AL26" s="101"/>
-      <c r="AM26" s="102"/>
-      <c r="AN26" s="103"/>
-      <c r="AO26" s="103"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="104"/>
-      <c r="AT26" s="100"/>
-      <c r="AU26" s="105"/>
-      <c r="AV26" s="100"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="106"/>
-      <c r="AY26" s="107"/>
-      <c r="AZ26" s="108"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="99"/>
+      <c r="AO26" s="99"/>
+      <c r="AP26" s="99"/>
+      <c r="AQ26" s="99"/>
+      <c r="AR26" s="99"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="95"/>
+      <c r="AU26" s="97"/>
+      <c r="AV26" s="95"/>
+      <c r="AW26" s="97"/>
+      <c r="AX26" s="104"/>
+      <c r="AY26" s="105"/>
+      <c r="AZ26" s="106"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A27" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="119"/>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="119"/>
+      <c r="AB27" s="119"/>
+      <c r="AC27" s="119"/>
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="109"/>
+      <c r="AF27" s="114"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="122"/>
+      <c r="AI27" s="109"/>
+      <c r="AJ27" s="110"/>
+      <c r="AK27" s="109"/>
+      <c r="AL27" s="110"/>
+      <c r="AM27" s="111"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="112"/>
+      <c r="AP27" s="112"/>
+      <c r="AQ27" s="112"/>
+      <c r="AR27" s="112"/>
+      <c r="AS27" s="113"/>
+      <c r="AT27" s="109"/>
+      <c r="AU27" s="114"/>
+      <c r="AV27" s="109"/>
+      <c r="AW27" s="114"/>
+      <c r="AX27" s="115"/>
+      <c r="AY27" s="116"/>
+      <c r="AZ27" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="239">
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AS25"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AS23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AS22"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AS14"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
+  <mergeCells count="251">
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
     <mergeCell ref="AX10:AZ10"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="S11:T11"/>
@@ -8582,15 +8807,210 @@
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AK11:AL11"/>
     <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AJ10"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AS17"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AS26"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AS24"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AS14"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AS13"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AZ13"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="O9:R9"/>
     <mergeCell ref="S9:T9"/>
@@ -8615,6 +9035,8 @@
     <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
@@ -8624,8 +9046,6 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
